--- a/sprintplan.xlsx
+++ b/sprintplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FlyAway\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testgit\FlyAway\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344D7E01-AFE8-400F-8751-57A8FAC1EB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18B3550-7DAE-4B17-8098-2B9B723D925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E50A6177-47FE-4283-9C4E-1BDEFD6A7733}"/>
   </bookViews>
@@ -74,12 +74,6 @@
     <t>Specification document</t>
   </si>
   <si>
-    <t>Code to delete file</t>
-  </si>
-  <si>
-    <t>Code to search file</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -119,10 +113,16 @@
     <t>FlyAway Agile Project Plan</t>
   </si>
   <si>
-    <t>Code Html and J</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Setup Environment</t>
+  </si>
+  <si>
+    <t>Code Html and JSP</t>
+  </si>
+  <si>
+    <t>Code Servlets/controllers</t>
+  </si>
+  <si>
+    <t>Code  DAO and DTO</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -651,7 +651,7 @@
         <v>44668</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -671,7 +671,7 @@
         <v>44669</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -691,7 +691,7 @@
         <v>44669</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -699,7 +699,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -711,15 +711,15 @@
         <v>44669</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -731,7 +731,7 @@
         <v>44669</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -746,107 +746,107 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2">
-        <v>44669</v>
+        <v>44674</v>
       </c>
       <c r="E10" s="2">
-        <v>37345</v>
+        <v>44682</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>44648</v>
+        <v>44674</v>
       </c>
       <c r="E11" s="2">
-        <v>37345</v>
+        <v>44682</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>44649</v>
+        <v>44674</v>
       </c>
       <c r="E12" s="2">
-        <v>37346</v>
+        <v>44682</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2">
-        <v>44649</v>
+        <v>44674</v>
       </c>
       <c r="E13" s="2">
-        <v>37347</v>
+        <v>44682</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="2">
-        <v>44651</v>
+        <v>44674</v>
       </c>
       <c r="E14" s="2">
-        <v>37347</v>
+        <v>44682</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -856,10 +856,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -868,18 +868,18 @@
         <v>44670</v>
       </c>
       <c r="E16" s="2">
-        <v>44676</v>
+        <v>44682</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -888,18 +888,18 @@
         <v>44670</v>
       </c>
       <c r="E17" s="2">
-        <v>44678</v>
+        <v>44682</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -908,18 +908,18 @@
         <v>44673</v>
       </c>
       <c r="E18" s="2">
-        <v>44678</v>
+        <v>44682</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -928,30 +928,30 @@
         <v>44674</v>
       </c>
       <c r="E19" s="2">
-        <v>44678</v>
+        <v>44683</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>44675</v>
+        <v>44683</v>
       </c>
       <c r="E20" s="2">
-        <v>44678</v>
+        <v>44683</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
